--- a/Data/Todo.xlsx
+++ b/Data/Todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yosef\Documents\GitHub\UFO\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D7EDAD5-CB35-454B-8E8C-F7FEE03F70B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A8532-2F94-4166-8BEC-CA3F378C4F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D48FE283-08B5-4FAB-99D4-7E807AA11EE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D48FE283-08B5-4FAB-99D4-7E807AA11EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Week 1</t>
   </si>
@@ -68,14 +68,46 @@
   </si>
   <si>
     <t>Country - only US</t>
+  </si>
+  <si>
+    <t>Use only desired columns</t>
+  </si>
+  <si>
+    <t>Convert shapes to numbers</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>which variables are highly related to each other? Create a correlation matrix</t>
+  </si>
+  <si>
+    <t>examine the mean of the data</t>
+  </si>
+  <si>
+    <t>examine histograms for continuos data</t>
+  </si>
+  <si>
+    <t>examine frequencies and box plots for categorical data</t>
+  </si>
+  <si>
+    <t>Create some graphs in tableau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,16 +452,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21811FE-11FC-49DB-B3FD-9186E5BFE708}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,21 +514,77 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>